--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T14:38:29+00:00</t>
+    <t>2024-07-11T12:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T12:41:29+00:00</t>
+    <t>2024-08-13T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T14:32:33+00:00</t>
+    <t>2024-09-03T11:48:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T11:48:25+00:00</t>
+    <t>2024-09-03T12:38:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from code system Inte" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T12:38:03+00:00</t>
+    <t>2024-09-18T09:33:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
+++ b/main/ig/ValueSet-FrMedicationReconciliationQualifiedDiscrepancy.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T09:33:57+00:00</t>
+    <t>2024-11-13T15:16:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
